--- a/server/src/public/bulanan.xlsx
+++ b/server/src/public/bulanan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>siswa_nama</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>lunas</t>
+  </si>
+  <si>
+    <t>2022-01-12</t>
+  </si>
+  <si>
+    <t>2022-01-13</t>
+  </si>
+  <si>
+    <t>2022-01-14</t>
   </si>
 </sst>
 </file>
@@ -120,7 +129,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yy/mm/dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -164,7 +173,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -493,7 +502,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,8 +603,8 @@
       <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="4">
-        <v>44636</v>
+      <c r="M2" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="N2" t="s">
         <v>16</v>
@@ -638,8 +647,8 @@
       <c r="L3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="4">
-        <v>44637</v>
+      <c r="M3" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="N3" t="s">
         <v>29</v>
@@ -682,8 +691,8 @@
       <c r="L4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="4">
-        <v>44638</v>
+      <c r="M4" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>

--- a/server/src/public/bulanan.xlsx
+++ b/server/src/public/bulanan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>siswa_nama</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>2022-01-14</t>
+  </si>
+  <si>
+    <t>abel</t>
+  </si>
+  <si>
+    <t>spp-126</t>
+  </si>
+  <si>
+    <t>2022-01-15</t>
+  </si>
+  <si>
+    <t>desember</t>
   </si>
 </sst>
 </file>
@@ -190,8 +202,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N5" totalsRowShown="0">
-  <autoFilter ref="A1:N5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N7" totalsRowShown="0">
+  <autoFilter ref="A1:N7"/>
   <tableColumns count="14">
     <tableColumn id="1" name="siswa_nis"/>
     <tableColumn id="2" name="siswa_nama"/>
@@ -499,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,6 +709,56 @@
       <c r="N4" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>192010001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+      <c r="G5">
+        <v>2023</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/src/public/bulanan.xlsx
+++ b/server/src/public/bulanan.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD0300E-9C42-C44C-8443-52CA37AAE7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="13395" windowHeight="5205"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>siswa_nama</t>
   </si>
@@ -54,27 +60,12 @@
     <t>nama_admin</t>
   </si>
   <si>
-    <t>Raka</t>
-  </si>
-  <si>
-    <t>XII</t>
-  </si>
-  <si>
     <t>RPL</t>
   </si>
   <si>
-    <t>spp</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
-    <t>Varits</t>
-  </si>
-  <si>
-    <t>Rafly</t>
-  </si>
-  <si>
     <t>periode_mulai</t>
   </si>
   <si>
@@ -87,60 +78,45 @@
     <t>Lunas</t>
   </si>
   <si>
-    <t>spp-124</t>
-  </si>
-  <si>
     <t>spp-125</t>
   </si>
   <si>
     <t>Januari</t>
   </si>
   <si>
-    <t>februari</t>
-  </si>
-  <si>
-    <t>maret</t>
-  </si>
-  <si>
     <t>admin2</t>
   </si>
   <si>
-    <t>agus</t>
-  </si>
-  <si>
     <t>Belum Lunas</t>
   </si>
   <si>
-    <t>lunas</t>
-  </si>
-  <si>
     <t>2022-01-12</t>
   </si>
   <si>
-    <t>2022-01-13</t>
-  </si>
-  <si>
     <t>2022-01-14</t>
   </si>
   <si>
-    <t>abel</t>
-  </si>
-  <si>
-    <t>spp-126</t>
-  </si>
-  <si>
-    <t>2022-01-15</t>
-  </si>
-  <si>
-    <t>desember</t>
+    <t>Fadil</t>
+  </si>
+  <si>
+    <t>Angga</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>SPP2</t>
+  </si>
+  <si>
+    <t>Maret</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="yy/mm/dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -178,7 +154,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -197,28 +173,31 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N7" totalsRowShown="0">
-  <autoFilter ref="A1:N7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N7" totalsRowShown="0">
+  <autoFilter ref="A1:N7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="siswa_nis"/>
-    <tableColumn id="2" name="siswa_nama"/>
-    <tableColumn id="3" name="kelas"/>
-    <tableColumn id="4" name="jurusan"/>
-    <tableColumn id="5" name="d_kelas"/>
-    <tableColumn id="6" name="periode_mulai"/>
-    <tableColumn id="7" name="periode_akhir"/>
-    <tableColumn id="8" name="nama_pos"/>
-    <tableColumn id="9" name="bulan"/>
-    <tableColumn id="10" name="tagihan"/>
-    <tableColumn id="11" name="no_transaksi"/>
-    <tableColumn id="12" name="status"/>
-    <tableColumn id="13" name="tanggal_bayar"/>
-    <tableColumn id="14" name="nama_admin"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="siswa_nis"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="siswa_nama"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="kelas"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="jurusan"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="d_kelas"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="periode_mulai"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="periode_akhir"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="nama_pos"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="bulan"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="tagihan"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="no_transaksi"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="status"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="tanggal_bayar"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="nama_admin"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -267,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,9 +279,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,6 +331,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,31 +523,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -551,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -578,186 +591,110 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>192010454</v>
+        <v>192010005</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
+        <v>2021</v>
+      </c>
+      <c r="G2">
         <v>2022</v>
       </c>
-      <c r="G2">
-        <v>2023</v>
-      </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J2" s="3">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>192010292</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2022</v>
-      </c>
-      <c r="G3">
-        <v>2023</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="3">
-        <v>300000</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I3" s="1"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>192010004</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
+        <v>2021</v>
+      </c>
+      <c r="G4">
         <v>2022</v>
       </c>
-      <c r="G4">
-        <v>2023</v>
-      </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="3">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>192010001</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>2022</v>
-      </c>
-      <c r="G5">
-        <v>2023</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="3">
-        <v>300000</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>28</v>
-      </c>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I5" s="1"/>
+      <c r="J5" s="3"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M7" s="4"/>
     </row>
   </sheetData>
@@ -770,24 +707,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/src/public/bulanan.xlsx
+++ b/server/src/public/bulanan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD0300E-9C42-C44C-8443-52CA37AAE7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D471C98D-E180-2440-A9E9-6EFBA3D8FA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,19 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 

--- a/server/src/public/bulanan.xlsx
+++ b/server/src/public/bulanan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otwku\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD0300E-9C42-C44C-8443-52CA37AAE7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF781CEC-0CFE-45C6-AC9F-2C445526F53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>siswa_nama</t>
   </si>
@@ -60,9 +60,15 @@
     <t>nama_admin</t>
   </si>
   <si>
+    <t>XII</t>
+  </si>
+  <si>
     <t>RPL</t>
   </si>
   <si>
+    <t>spp</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
@@ -78,37 +84,46 @@
     <t>Lunas</t>
   </si>
   <si>
+    <t>spp-124</t>
+  </si>
+  <si>
     <t>spp-125</t>
   </si>
   <si>
     <t>Januari</t>
   </si>
   <si>
+    <t>februari</t>
+  </si>
+  <si>
+    <t>maret</t>
+  </si>
+  <si>
     <t>admin2</t>
   </si>
   <si>
     <t>Belum Lunas</t>
   </si>
   <si>
-    <t>2022-01-12</t>
-  </si>
-  <si>
-    <t>2022-01-14</t>
+    <t>lunas</t>
+  </si>
+  <si>
+    <t>spp-126</t>
+  </si>
+  <si>
+    <t>desember</t>
+  </si>
+  <si>
+    <t>Asti</t>
+  </si>
+  <si>
+    <t>Angga</t>
   </si>
   <si>
     <t>Fadil</t>
   </si>
   <si>
-    <t>Angga</t>
-  </si>
-  <si>
-    <t>XI</t>
-  </si>
-  <si>
-    <t>SPP2</t>
-  </si>
-  <si>
-    <t>Maret</t>
+    <t>Fajar</t>
   </si>
 </sst>
 </file>
@@ -526,28 +541,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -564,10 +579,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -591,110 +606,186 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>192010005</v>
+        <v>192010003</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
+        <v>2020</v>
+      </c>
+      <c r="G2">
         <v>2021</v>
       </c>
-      <c r="G2">
-        <v>2022</v>
-      </c>
       <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="4">
+        <v>43842</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>192010004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>2020</v>
+      </c>
+      <c r="G3">
+        <v>2021</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3">
-        <v>250000</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="M3" s="4">
+        <v>43843</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>192010005</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I3" s="1"/>
-      <c r="J3" s="3"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>192010004</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
+        <v>2020</v>
+      </c>
+      <c r="G4">
         <v>2021</v>
       </c>
-      <c r="G4">
-        <v>2022</v>
-      </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="4">
+        <v>43844</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>192010006</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>2020</v>
+      </c>
+      <c r="G5">
+        <v>2021</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="3">
-        <v>250000</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="4">
+        <v>43845</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I5" s="1"/>
-      <c r="J5" s="3"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M7" s="4"/>
     </row>
   </sheetData>
@@ -712,7 +803,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -724,7 +815,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/src/public/bulanan.xlsx
+++ b/server/src/public/bulanan.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otwku\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF781CEC-0CFE-45C6-AC9F-2C445526F53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE37110-47C2-6242-A559-BA9126D64E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>siswa_nama</t>
   </si>
@@ -60,15 +72,9 @@
     <t>nama_admin</t>
   </si>
   <si>
-    <t>XII</t>
-  </si>
-  <si>
     <t>RPL</t>
   </si>
   <si>
-    <t>spp</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -84,46 +90,43 @@
     <t>Lunas</t>
   </si>
   <si>
-    <t>spp-124</t>
-  </si>
-  <si>
     <t>spp-125</t>
   </si>
   <si>
     <t>Januari</t>
   </si>
   <si>
-    <t>februari</t>
-  </si>
-  <si>
-    <t>maret</t>
-  </si>
-  <si>
-    <t>admin2</t>
-  </si>
-  <si>
     <t>Belum Lunas</t>
   </si>
   <si>
-    <t>lunas</t>
-  </si>
-  <si>
-    <t>spp-126</t>
-  </si>
-  <si>
-    <t>desember</t>
-  </si>
-  <si>
-    <t>Asti</t>
+    <t>2022-01-12</t>
+  </si>
+  <si>
+    <t>2022-01-14</t>
+  </si>
+  <si>
+    <t>Fadil</t>
   </si>
   <si>
     <t>Angga</t>
   </si>
   <si>
-    <t>Fadil</t>
-  </si>
-  <si>
-    <t>Fajar</t>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>SPP2</t>
+  </si>
+  <si>
+    <t>Maret</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>2022-01-16</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="yy/mm/dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +148,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -541,28 +550,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -579,10 +588,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -606,189 +615,155 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>192010003</v>
+        <v>192010005</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J2" s="3">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="4">
-        <v>43842</v>
+        <v>17</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I3" s="1"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>192010004</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2020</v>
-      </c>
-      <c r="G3">
-        <v>2021</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3">
-        <v>300000</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="4">
-        <v>43843</v>
-      </c>
-      <c r="N3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>192010005</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G4">
+        <v>2022</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I5" s="1"/>
+      <c r="J5" s="3"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>192010004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>2021</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="3">
-        <v>300000</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="G6">
+        <v>2022</v>
+      </c>
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="4">
-        <v>43844</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>192010006</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>2020</v>
-      </c>
-      <c r="G5">
-        <v>2021</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="3">
-        <v>300000</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="4">
-        <v>43845</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M7" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -803,7 +778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -815,7 +790,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
